--- a/TWN/SourceData/202509/motorcycle_202509.xlsx
+++ b/TWN/SourceData/202509/motorcycle_202509.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="機車" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="機車" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q105"/>
+  <dimension ref="A1:Q113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3934,7 +3934,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>龍井區西屯路4段近新仁街22巷慢車道</t>
+          <t>龍井區西屯路4段近新仁路22巷慢車道-南往北</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -6234,7 +6234,9 @@
       <c r="Q104" t="inlineStr"/>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr"/>
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>臺中市</t>
@@ -6285,6 +6287,446 @@
       <c r="O105" t="inlineStr"/>
       <c r="P105" t="inlineStr"/>
       <c r="Q105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>新北市</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>八里高灘地園區八里彩虹步道(往老街方向)</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>25.1607414156446</v>
+      </c>
+      <c r="E106" t="n">
+        <v>121.432286485722</v>
+      </c>
+      <c r="F106" t="n">
+        <v>97</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>76</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>八里彩虹步道</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>3</v>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>車輛行駛禁行路段</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>新北市</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>八里高灘地園區八里彩虹步道(往觀海大道方向)</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>25.1607414156446</v>
+      </c>
+      <c r="E107" t="n">
+        <v>121.432286485722</v>
+      </c>
+      <c r="F107" t="n">
+        <v>279</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>76</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>八里彩虹步道</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>3</v>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>車輛行駛禁行路段</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>新北市</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>新店高灘地園區新店大鵬2號橫移門(往秀朗橋方向)</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>24.9906106621</v>
+      </c>
+      <c r="E108" t="n">
+        <v>121.532069280466</v>
+      </c>
+      <c r="F108" t="n">
+        <v>216</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>76</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>新店大鵬2號橫移門</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>3</v>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>車輛行駛禁行路段</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>新北市</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>新店高灘地園區新店親情籃球場(往小碧潭方向)</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>24.9646073962719</v>
+      </c>
+      <c r="E109" t="n">
+        <v>121.535769231037</v>
+      </c>
+      <c r="F109" t="n">
+        <v>326</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="n">
+        <v>76</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>新店親情籃球場</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>3</v>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>車輛行駛禁行路段</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>新北市</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>汐止高灘地園區汐止草濫溪抽水站</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>25.0627237843959</v>
+      </c>
+      <c r="E110" t="n">
+        <v>121.620211959384</v>
+      </c>
+      <c r="F110" t="n">
+        <v>136</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="n">
+        <v>76</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>草濫溪抽水站</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>3</v>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>車輛行駛禁行路段</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>新北市</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>汐止高灘地園區汐止大坑溪自行車道</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>25.0569667516057</v>
+      </c>
+      <c r="E111" t="n">
+        <v>121.622838634639</v>
+      </c>
+      <c r="F111" t="n">
+        <v>157</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>76</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>汐止大坑溪自行車道</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>3</v>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>車輛行駛禁行路段</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>臺中市</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>沙鹿區中清路7段沙鹿交流道</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>24.2501741379231</v>
+      </c>
+      <c r="E112" t="n">
+        <v>120.57968329107</v>
+      </c>
+      <c r="F112" t="n">
+        <v>272</v>
+      </c>
+      <c r="G112" t="n">
+        <v>40</v>
+      </c>
+      <c r="H112" t="n">
+        <v>75</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>中清路7段</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>3</v>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>東往西慢車道-移動式</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>臺中市</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>沙鹿區臺灣大道6段805號</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>24.2111677348531</v>
+      </c>
+      <c r="E113" t="n">
+        <v>120.581030190228</v>
+      </c>
+      <c r="F113" t="n">
+        <v>173</v>
+      </c>
+      <c r="G113" t="n">
+        <v>40</v>
+      </c>
+      <c r="H113" t="n">
+        <v>75</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>臺灣大道6段</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>3</v>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>往市區方向機慢車道-移動式</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
